--- a/excel/MaestroOportunidades.xlsx
+++ b/excel/MaestroOportunidades.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wtfckkk\CRM-admision\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hmedinam\TICS4EDU\Clientes\La Araucana\CRM\Archivos de Carga\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="5520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Maestro de Oportunidades</t>
   </si>
@@ -53,22 +53,19 @@
     <t>Tipo de Feedback</t>
   </si>
   <si>
-    <t>sede1</t>
-  </si>
-  <si>
-    <t>carr01</t>
-  </si>
-  <si>
-    <t>Observacion de prueba</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>Abierta</t>
+  </si>
+  <si>
+    <t>Oportunidad de Prueba</t>
+  </si>
+  <si>
+    <t>SANTIAGO 01</t>
+  </si>
+  <si>
+    <t>19TSAIP</t>
   </si>
 </sst>
 </file>
@@ -170,10 +167,10 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,16 +470,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -511,20 +508,20 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>24</v>
+      <c r="A3" s="6">
+        <v>30</v>
       </c>
       <c r="B3" s="4">
-        <v>12456789</v>
+        <v>16099687</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -533,59 +530,59 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>24</v>
+      <c r="A4" s="6">
+        <v>30</v>
       </c>
       <c r="B4" s="4">
-        <v>12456789</v>
+        <v>12858628</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>24</v>
+      <c r="A5" s="6">
+        <v>30</v>
       </c>
       <c r="B5" s="4">
-        <v>12456789</v>
+        <v>15362135</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
